--- a/Telemetry Module Weight Measurements.xlsx
+++ b/Telemetry Module Weight Measurements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damola\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damola\Desktop\code\Telemetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C4D3A1-126D-476E-B3A1-BA108BCAEBBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D8DA5B-4762-4443-8022-A6F1DF46C0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{833A539F-BD9D-4EC6-AF1A-2F632C3BCA4D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Item Name </t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">Total Weight </t>
   </si>
   <si>
-    <t>LoRa Radio</t>
-  </si>
-  <si>
     <t>Female PCB RF Mount</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>Pi Camera Module</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Cooling pack</t>
+  </si>
+  <si>
+    <t>Feather 32u4</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +471,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>13.60777</v>
@@ -489,7 +495,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>32.034959999999998</v>
@@ -497,15 +503,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>18.143689999999999</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -516,15 +522,31 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>109.7127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>49.86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +555,7 @@
       </c>
       <c r="B18">
         <f>SUM(B1:B16)</f>
-        <v>219.92628000000002</v>
+        <v>366.85529000000002</v>
       </c>
     </row>
   </sheetData>
